--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -71,7 +71,7 @@
     <t>functional-score-observation-profile</t>
   </si>
   <si>
-    <t>Stroke Functional Score Observation Profile (R5, Timing Ext)</t>
+    <t>Stroke Functional Score Observation Profile</t>
   </si>
   <si>
     <t>Observation Category Codes#exam</t>
@@ -101,7 +101,7 @@
     <t>vital-sign-observation-profile</t>
   </si>
   <si>
-    <t>Stroke Vital Sign Observation Profile (R5)</t>
+    <t>Stroke Vital Sign Observation Profile</t>
   </si>
   <si>
     <t>Observation Category Codes#vital-signs</t>
